--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407347.3885919267</v>
+        <v>419750.3507526594</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9654200.856693137</v>
+        <v>11012642.82066678</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17785260.94054101</v>
+        <v>19143702.90451467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5420858.530679013</v>
+        <v>4736183.073397094</v>
       </c>
     </row>
     <row r="11">
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11066,13 +11068,13 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>135.4597561231036</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23279,31 +23281,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23355,34 +23357,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23437,28 +23439,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23829,34 +23831,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -24227,31 +24229,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24303,34 +24305,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24385,28 +24387,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24622,28 +24624,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -25251,34 +25253,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25333,28 +25335,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25488,34 +25490,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25570,28 +25572,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25658,13 +25660,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -25807,28 +25809,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25886,28 +25888,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25962,34 +25964,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26044,28 +26046,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331796.9225270664</v>
+        <v>108813.8825144672</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>331796.9225270664</v>
+        <v>287348.2706970166</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>331796.9225270664</v>
+        <v>108813.8825144672</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>331796.9225270664</v>
+        <v>304259.9902078642</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>331796.9225270664</v>
+        <v>259811.3383778145</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>331796.9225270664</v>
+        <v>259811.3383778145</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>331796.9225270664</v>
+        <v>256639.122942753</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>331796.9225270664</v>
+        <v>117968.1798027737</v>
       </c>
     </row>
   </sheetData>
@@ -26317,25 +26319,25 @@
         <v>553011.5286340009</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="E2" t="n">
-        <v>154332.7400023158</v>
+        <v>68324.99599745618</v>
       </c>
       <c r="F2" t="n">
         <v>154332.7400023158</v>
       </c>
       <c r="G2" t="n">
-        <v>154332.7400023158</v>
+        <v>137188.2600107252</v>
       </c>
       <c r="H2" t="n">
         <v>154332.7400023158</v>
       </c>
       <c r="I2" t="n">
-        <v>154332.7400023158</v>
+        <v>68324.99599745618</v>
       </c>
       <c r="J2" t="n">
-        <v>154332.7400023158</v>
+        <v>143711.3518220521</v>
       </c>
       <c r="K2" t="n">
         <v>154332.7400023158</v>
@@ -26344,16 +26346,16 @@
         <v>154332.7400023158</v>
       </c>
       <c r="M2" t="n">
-        <v>154332.7400023158</v>
+        <v>126566.8718304616</v>
       </c>
       <c r="N2" t="n">
-        <v>154332.7400023158</v>
+        <v>126566.8718304616</v>
       </c>
       <c r="O2" t="n">
-        <v>154332.7400023158</v>
+        <v>125343.303019795</v>
       </c>
       <c r="P2" t="n">
-        <v>154332.7400023158</v>
+        <v>71855.93923723153</v>
       </c>
     </row>
     <row r="3">
@@ -26424,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>85772.73056817782</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="G4" t="n">
-        <v>85772.73056817782</v>
+        <v>68863.26401326904</v>
       </c>
       <c r="H4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="I4" t="n">
-        <v>85772.73056817782</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>85772.73056817782</v>
+        <v>75386.355824596</v>
       </c>
       <c r="K4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="L4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="M4" t="n">
-        <v>85772.73056817782</v>
+        <v>58241.8758330054</v>
       </c>
       <c r="N4" t="n">
-        <v>85772.73056817782</v>
+        <v>58241.8758330054</v>
       </c>
       <c r="O4" t="n">
-        <v>85772.73056817782</v>
+        <v>57018.30702233886</v>
       </c>
       <c r="P4" t="n">
-        <v>85772.73056817782</v>
+        <v>3530.943239775346</v>
       </c>
     </row>
     <row r="5">
@@ -26525,43 +26527,43 @@
         <v>51767.9687022697</v>
       </c>
       <c r="D6" t="n">
-        <v>51767.96870226958</v>
+        <v>51767.9687022697</v>
       </c>
       <c r="E6" t="n">
-        <v>-68151.60267087042</v>
+        <v>-68386.6161075522</v>
       </c>
       <c r="F6" t="n">
-        <v>64948.39732912964</v>
+        <v>64713.3838924478</v>
       </c>
       <c r="G6" t="n">
-        <v>64948.39732912964</v>
+        <v>64713.38389244781</v>
       </c>
       <c r="H6" t="n">
-        <v>64948.39732912964</v>
+        <v>64713.3838924478</v>
       </c>
       <c r="I6" t="n">
-        <v>64948.39732912964</v>
+        <v>64713.38389244786</v>
       </c>
       <c r="J6" t="n">
-        <v>64948.39732912964</v>
+        <v>64713.3838924478</v>
       </c>
       <c r="K6" t="n">
-        <v>64948.39732912964</v>
+        <v>64713.38389244778</v>
       </c>
       <c r="L6" t="n">
-        <v>64948.39732912964</v>
+        <v>64713.3838924478</v>
       </c>
       <c r="M6" t="n">
-        <v>64948.39732912964</v>
+        <v>64713.38389244784</v>
       </c>
       <c r="N6" t="n">
-        <v>64948.39732912964</v>
+        <v>64713.38389244784</v>
       </c>
       <c r="O6" t="n">
-        <v>64948.39732912964</v>
+        <v>64713.38389244784</v>
       </c>
       <c r="P6" t="n">
-        <v>64948.39732912964</v>
+        <v>64713.38389244787</v>
       </c>
     </row>
   </sheetData>
